--- a/teamsFinal.xlsx
+++ b/teamsFinal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
   <si>
     <t>Seo1</t>
   </si>
@@ -25,16 +25,34 @@
     <t>Seo3</t>
   </si>
   <si>
-    <t>Общие слова 1-2</t>
-  </si>
-  <si>
-    <t>Общие слова 1-2-3</t>
-  </si>
-  <si>
-    <t>Пересечение слов 1-2</t>
-  </si>
-  <si>
-    <t>Пересечение слов 1-2-3</t>
+    <t>Пересечение списка 1-2</t>
+  </si>
+  <si>
+    <t>Пересечение списка 1-2-3</t>
+  </si>
+  <si>
+    <t>Разница списков 1-2</t>
+  </si>
+  <si>
+    <t>Разница списков 1-2-3</t>
+  </si>
+  <si>
+    <t>Слова конкурент 1</t>
+  </si>
+  <si>
+    <t>"!1"</t>
+  </si>
+  <si>
+    <t>Слова конкурент 2</t>
+  </si>
+  <si>
+    <t>"!2"</t>
+  </si>
+  <si>
+    <t>Слова конкурент 3</t>
+  </si>
+  <si>
+    <t>"!3"</t>
   </si>
   <si>
     <t>закажите</t>
@@ -55,13 +73,88 @@
     <t>ключ</t>
   </si>
   <si>
-    <t>один</t>
-  </si>
-  <si>
-    <t>два</t>
-  </si>
-  <si>
-    <t>три</t>
+    <t>недорого</t>
+  </si>
+  <si>
+    <t>в</t>
+  </si>
+  <si>
+    <t>санктпетербурге</t>
+  </si>
+  <si>
+    <t>и</t>
+  </si>
+  <si>
+    <t>ленинградской</t>
+  </si>
+  <si>
+    <t>области</t>
+  </si>
+  <si>
+    <t>строительная</t>
+  </si>
+  <si>
+    <t>компания</t>
+  </si>
+  <si>
+    <t>владимир</t>
+  </si>
+  <si>
+    <t>строй</t>
+  </si>
+  <si>
+    <t>от</t>
+  </si>
+  <si>
+    <t>компании</t>
+  </si>
+  <si>
+    <t>ооо</t>
+  </si>
+  <si>
+    <t>«новый</t>
+  </si>
+  <si>
+    <t>дом»</t>
+  </si>
+  <si>
+    <t>проекты</t>
+  </si>
+  <si>
+    <t>домов</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>руб</t>
+  </si>
+  <si>
+    <t>ключи</t>
+  </si>
+  <si>
+    <t>консультанты</t>
+  </si>
+  <si>
+    <t>помогут</t>
+  </si>
+  <si>
+    <t>вам</t>
+  </si>
+  <si>
+    <t>выбрать</t>
+  </si>
+  <si>
+    <t>дом</t>
+  </si>
+  <si>
+    <t>вашей</t>
+  </si>
+  <si>
+    <t>мечты</t>
   </si>
 </sst>
 </file>
@@ -419,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,150 +540,756 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1">
         <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
